--- a/data/trans_orig/IP2508_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2508_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCE7140-3C48-4D27-9207-1EFB0C7ECDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{816C3287-4690-438E-A3B1-39205E835057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{07F2F943-1B8C-4099-AC8A-52D6C7FFEEA7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{28F4D5D8-45C1-4323-AE07-6280C5E3CF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,10 +68,268 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1 hora</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>De 1 hora a 2 horas</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 horas</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>Más de 3 horas</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De 1 hora a 2 horas</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>45,42%</t>
@@ -101,9 +359,6 @@
     <t>49,8%</t>
   </si>
   <si>
-    <t>De 2 a 3 horas</t>
-  </si>
-  <si>
     <t>31,87%</t>
   </si>
   <si>
@@ -131,39 +386,6 @@
     <t>37,89%</t>
   </si>
   <si>
-    <t>Menos de 1 hora</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>Más de 3 horas</t>
-  </si>
-  <si>
     <t>7,29%</t>
   </si>
   <si>
@@ -188,123 +410,141 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
     <t>45,76%</t>
   </si>
   <si>
@@ -359,33 +599,6 @@
     <t>35,99%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
     <t>8,52%</t>
   </si>
   <si>
@@ -413,217 +626,28 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>47,9%</t>
@@ -680,30 +704,6 @@
     <t>32,18%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
     <t>7,77%</t>
   </si>
   <si>
@@ -734,6 +734,234 @@
     <t>Menores según el número de horas que emprean en ver la televisión en 2012 (Tasa respuesta: 89,71%)</t>
   </si>
   <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
     <t>53,33%</t>
   </si>
   <si>
@@ -788,33 +1016,6 @@
     <t>31,24%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
     <t>9,61%</t>
   </si>
   <si>
@@ -836,109 +1037,130 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>45,11%</t>
@@ -995,30 +1217,6 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
     <t>9,59%</t>
   </si>
   <si>
@@ -1043,202 +1241,31 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>50,1%</t>
@@ -1292,33 +1319,6 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
     <t>8,89%</t>
   </si>
   <si>
@@ -1346,6 +1346,216 @@
     <t>Menores según el número de horas que emprean en ver la televisión en 2015 (Tasa respuesta: 89,13%)</t>
   </si>
   <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
     <t>44,11%</t>
   </si>
   <si>
@@ -1394,30 +1604,6 @@
     <t>37,84%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
     <t>5,03%</t>
   </si>
   <si>
@@ -1445,109 +1631,124 @@
     <t>8,16%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>37,98%</t>
@@ -1577,9 +1778,6 @@
     <t>43,18%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
     <t>28,42%</t>
   </si>
   <si>
@@ -1604,33 +1802,6 @@
     <t>38,12%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
     <t>15,26%</t>
   </si>
   <si>
@@ -1655,175 +1826,28 @@
     <t>17,62%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>42,15%</t>
@@ -1877,30 +1901,6 @@
     <t>36,35%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
     <t>10,57%</t>
   </si>
   <si>
@@ -1928,6 +1928,204 @@
     <t>Menores según el número de horas que emprean en ver la televisión en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
     <t>46,45%</t>
   </si>
   <si>
@@ -1973,30 +2171,6 @@
     <t>20,37%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
     <t>6,28%</t>
   </si>
   <si>
@@ -2021,100 +2195,121 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>41,38%</t>
@@ -2171,27 +2366,6 @@
     <t>18,36%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
     <t>6,62%</t>
   </si>
   <si>
@@ -2213,178 +2387,22 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>42,34%</t>
@@ -2427,24 +2445,6 @@
   </si>
   <si>
     <t>18,73%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
   </si>
   <si>
     <t>9,37%</t>
@@ -2854,7 +2854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88161E7A-C077-41C6-AE89-002CD13174C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6EA1E8-1A0E-4488-9CB6-B18A9741AE52}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2972,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>83309</v>
+        <v>3607</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2987,10 +2987,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>79625</v>
+        <v>770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -3002,10 +3002,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>162934</v>
+        <v>4376</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -3023,10 +3023,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>58459</v>
+        <v>8467</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -3038,10 +3038,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>61608</v>
+        <v>13755</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -3053,10 +3053,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>120067</v>
+        <v>22223</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -3074,10 +3074,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>28266</v>
+        <v>7080</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -3089,10 +3089,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>20858</v>
+        <v>7485</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -3104,10 +3104,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>49123</v>
+        <v>14565</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -3125,10 +3125,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>13378</v>
+        <v>3094</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -3140,34 +3140,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>10403</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3094</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>36</v>
-      </c>
-      <c r="N7" s="7">
-        <v>23781</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>183412</v>
+        <v>22248</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -3191,10 +3191,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>172493</v>
+        <v>22010</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -3206,10 +3206,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>555</v>
+        <v>57</v>
       </c>
       <c r="N8" s="7">
-        <v>355905</v>
+        <v>44258</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -3229,10 +3229,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>69690</v>
+        <v>15871</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -3244,10 +3244,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>57290</v>
+        <v>18616</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -3259,10 +3259,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="N9" s="7">
-        <v>126980</v>
+        <v>34487</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -3280,10 +3280,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>20656</v>
+        <v>69690</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -3295,10 +3295,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7">
-        <v>23279</v>
+        <v>57290</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -3310,10 +3310,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="N10" s="7">
-        <v>43935</v>
+        <v>126980</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -3331,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>15871</v>
+        <v>20656</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -3346,10 +3346,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>18616</v>
+        <v>23279</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -3361,10 +3361,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>34487</v>
+        <v>43935</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -3486,10 +3486,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>82364</v>
+        <v>28266</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -3501,10 +3501,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>91540</v>
+        <v>20858</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -3516,10 +3516,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>173905</v>
+        <v>49123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -3537,10 +3537,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D15" s="7">
-        <v>63050</v>
+        <v>83309</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -3552,10 +3552,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>54632</v>
+        <v>79625</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -3567,10 +3567,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="N15" s="7">
-        <v>117682</v>
+        <v>162934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -3588,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>19245</v>
+        <v>58459</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -3603,10 +3603,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>30431</v>
+        <v>61608</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -3618,10 +3618,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>49676</v>
+        <v>120067</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -3639,10 +3639,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>15340</v>
+        <v>13378</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -3654,10 +3654,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>16852</v>
+        <v>10403</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -3669,10 +3669,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>32192</v>
+        <v>23781</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -3681,7 +3681,7 @@
         <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>179999</v>
+        <v>183412</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -3705,10 +3705,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="I18" s="7">
-        <v>193455</v>
+        <v>172493</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -3720,10 +3720,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="N18" s="7">
-        <v>373454</v>
+        <v>355905</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -3737,55 +3737,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>8467</v>
+        <v>20780</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14758</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13755</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>58</v>
+      </c>
+      <c r="N19" s="7">
+        <v>35539</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="7">
-        <v>29</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22223</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,49 +3794,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7">
-        <v>7080</v>
+        <v>58878</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>106</v>
+      </c>
+      <c r="I20" s="7">
+        <v>63043</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7485</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>198</v>
+      </c>
+      <c r="N20" s="7">
+        <v>121921</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="7">
-        <v>18</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14565</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +3845,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
-        <v>3607</v>
+        <v>43109</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>59</v>
+      </c>
+      <c r="I21" s="7">
+        <v>36511</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>770</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>124</v>
+      </c>
+      <c r="N21" s="7">
+        <v>79620</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>6</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4376</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3896,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>3094</v>
+        <v>9345</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7994</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>27</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17339</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="7">
-        <v>4</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3094</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>22248</v>
+        <v>132113</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -3962,10 +3962,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I23" s="7">
-        <v>22010</v>
+        <v>122306</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -3977,10 +3977,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="N23" s="7">
-        <v>44258</v>
+        <v>254419</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -3994,55 +3994,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>58878</v>
+        <v>19245</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>40</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30431</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
-        <v>106</v>
-      </c>
-      <c r="I24" s="7">
-        <v>63043</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>69</v>
+      </c>
+      <c r="N24" s="7">
+        <v>49676</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="7">
-        <v>198</v>
-      </c>
-      <c r="N24" s="7">
-        <v>121921</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +4051,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>43109</v>
+        <v>82364</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>120</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91540</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="7">
-        <v>59</v>
-      </c>
-      <c r="I25" s="7">
-        <v>36511</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>241</v>
+      </c>
+      <c r="N25" s="7">
+        <v>173905</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="7">
-        <v>124</v>
-      </c>
-      <c r="N25" s="7">
-        <v>79620</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7">
-        <v>20780</v>
+        <v>63050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>178</v>
@@ -4117,10 +4117,10 @@
         <v>179</v>
       </c>
       <c r="H26" s="7">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I26" s="7">
-        <v>14758</v>
+        <v>54632</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>180</v>
@@ -4132,10 +4132,10 @@
         <v>182</v>
       </c>
       <c r="M26" s="7">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="N26" s="7">
-        <v>35539</v>
+        <v>117682</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>183</v>
@@ -4153,10 +4153,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D27" s="7">
-        <v>9345</v>
+        <v>15340</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>186</v>
@@ -4168,10 +4168,10 @@
         <v>188</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
-        <v>7994</v>
+        <v>16852</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>189</v>
@@ -4183,10 +4183,10 @@
         <v>191</v>
       </c>
       <c r="M27" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N27" s="7">
-        <v>17339</v>
+        <v>32192</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>192</v>
@@ -4204,10 +4204,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="D28" s="7">
-        <v>132113</v>
+        <v>179999</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -4219,10 +4219,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="I28" s="7">
-        <v>122306</v>
+        <v>193455</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -4234,10 +4234,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="N28" s="7">
-        <v>254419</v>
+        <v>373454</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -4257,10 +4257,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="D29" s="7">
-        <v>302709</v>
+        <v>87769</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>195</v>
@@ -4272,10 +4272,10 @@
         <v>197</v>
       </c>
       <c r="H29" s="7">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="I29" s="7">
-        <v>305253</v>
+        <v>85432</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>198</v>
@@ -4287,19 +4287,19 @@
         <v>200</v>
       </c>
       <c r="M29" s="7">
-        <v>915</v>
+        <v>262</v>
       </c>
       <c r="N29" s="7">
-        <v>607962</v>
+        <v>173201</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +4308,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="D30" s="7">
-        <v>192355</v>
+        <v>302709</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>459</v>
+      </c>
+      <c r="I30" s="7">
+        <v>305253</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="7">
-        <v>271</v>
-      </c>
-      <c r="I30" s="7">
-        <v>183514</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>915</v>
+      </c>
+      <c r="N30" s="7">
+        <v>607962</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M30" s="7">
-        <v>559</v>
-      </c>
-      <c r="N30" s="7">
-        <v>375869</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,43 +4359,43 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="D31" s="7">
-        <v>87769</v>
+        <v>192355</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>271</v>
+      </c>
+      <c r="I31" s="7">
+        <v>183514</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H31" s="7">
-        <v>128</v>
-      </c>
-      <c r="I31" s="7">
-        <v>85432</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>559</v>
+      </c>
+      <c r="N31" s="7">
+        <v>375869</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>262</v>
-      </c>
-      <c r="N31" s="7">
-        <v>173201</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>219</v>
@@ -4524,7 +4524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F6E14D-9B54-4F2B-86C1-EBFB24D6EF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E6CBE-7FC4-4D29-9DF9-30B46C20F790}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4642,49 +4642,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>107063</v>
+        <v>1753</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3739</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="7">
-        <v>137</v>
-      </c>
-      <c r="I4" s="7">
-        <v>89347</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5492</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="7">
-        <v>294</v>
-      </c>
-      <c r="N4" s="7">
-        <v>196410</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,49 +4693,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>51731</v>
+        <v>15290</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6972</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="7">
-        <v>81</v>
-      </c>
-      <c r="I5" s="7">
-        <v>53417</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22262</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M5" s="7">
-        <v>156</v>
-      </c>
-      <c r="N5" s="7">
-        <v>105148</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,49 +4744,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>22672</v>
+        <v>3806</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7967</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="7">
-        <v>52</v>
-      </c>
-      <c r="I6" s="7">
-        <v>32725</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7">
+        <v>11773</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="M6" s="7">
-        <v>84</v>
-      </c>
-      <c r="N6" s="7">
-        <v>55398</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,49 +4795,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>19301</v>
+        <v>3157</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2845</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10568</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6002</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M7" s="7">
-        <v>45</v>
-      </c>
-      <c r="N7" s="7">
-        <v>29868</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>200767</v>
+        <v>24006</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -4861,10 +4861,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>186057</v>
+        <v>21523</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -4876,10 +4876,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>579</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>386824</v>
+        <v>45529</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -4899,49 +4899,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>55393</v>
+        <v>18036</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20320</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50844</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>55</v>
+      </c>
+      <c r="N9" s="7">
+        <v>38356</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M9" s="7">
-        <v>146</v>
-      </c>
-      <c r="N9" s="7">
-        <v>106236</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,49 +4950,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>34238</v>
+        <v>55393</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>50844</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="7">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30791</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>146</v>
+      </c>
+      <c r="N10" s="7">
+        <v>106236</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M10" s="7">
-        <v>93</v>
-      </c>
-      <c r="N10" s="7">
-        <v>65028</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,10 +5001,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>18036</v>
+        <v>34238</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>282</v>
@@ -5016,10 +5016,10 @@
         <v>284</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>20320</v>
+        <v>30791</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>285</v>
@@ -5031,10 +5031,10 @@
         <v>287</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="N11" s="7">
-        <v>38356</v>
+        <v>65028</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>288</v>
@@ -5043,7 +5043,7 @@
         <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>9446</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5073,13 +5073,13 @@
         <v>4895</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5088,13 +5088,13 @@
         <v>14341</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,49 +5156,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>86546</v>
+        <v>22672</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32725</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="7">
-        <v>115</v>
-      </c>
-      <c r="I14" s="7">
-        <v>86622</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>84</v>
+      </c>
+      <c r="N14" s="7">
+        <v>55398</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M14" s="7">
-        <v>234</v>
-      </c>
-      <c r="N14" s="7">
-        <v>173168</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,49 +5207,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7">
-        <v>56248</v>
+        <v>107063</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>137</v>
+      </c>
+      <c r="I15" s="7">
+        <v>89347</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H15" s="7">
-        <v>70</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55850</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>294</v>
+      </c>
+      <c r="N15" s="7">
+        <v>196410</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M15" s="7">
-        <v>146</v>
-      </c>
-      <c r="N15" s="7">
-        <v>112098</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,49 +5258,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>30683</v>
+        <v>51731</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>81</v>
+      </c>
+      <c r="I16" s="7">
+        <v>53417</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26979</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>156</v>
+      </c>
+      <c r="N16" s="7">
+        <v>105148</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="M16" s="7">
-        <v>77</v>
-      </c>
-      <c r="N16" s="7">
-        <v>57662</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,49 +5309,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>18396</v>
+        <v>19301</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10568</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16795</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
       </c>
       <c r="N17" s="7">
-        <v>35191</v>
+        <v>29868</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,10 +5360,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="D18" s="7">
-        <v>191873</v>
+        <v>200767</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -5375,10 +5375,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="I18" s="7">
-        <v>186246</v>
+        <v>186057</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -5390,10 +5390,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="N18" s="7">
-        <v>378119</v>
+        <v>386824</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -5407,55 +5407,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>15290</v>
+        <v>19437</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>20353</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6972</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7">
+        <v>39790</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22262</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,49 +5464,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>3806</v>
+        <v>77938</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>108</v>
+      </c>
+      <c r="I20" s="7">
+        <v>69705</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7967</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>231</v>
+      </c>
+      <c r="N20" s="7">
+        <v>147643</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M20" s="7">
-        <v>14</v>
-      </c>
-      <c r="N20" s="7">
-        <v>11773</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,49 +5515,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D21" s="7">
-        <v>1753</v>
+        <v>41508</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>3739</v>
+        <v>28354</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="N21" s="7">
-        <v>5492</v>
+        <v>69862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,40 +5566,40 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>3157</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>2845</v>
+        <v>12916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>362</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N22" s="7">
-        <v>6002</v>
+        <v>23316</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>363</v>
@@ -5617,10 +5617,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="D23" s="7">
-        <v>24006</v>
+        <v>149283</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -5632,10 +5632,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="I23" s="7">
-        <v>21523</v>
+        <v>131328</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -5647,10 +5647,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="N23" s="7">
-        <v>45529</v>
+        <v>280611</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -5664,16 +5664,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>77938</v>
+        <v>30683</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>366</v>
@@ -5685,10 +5685,10 @@
         <v>368</v>
       </c>
       <c r="H24" s="7">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7">
-        <v>69705</v>
+        <v>26979</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>369</v>
@@ -5700,19 +5700,19 @@
         <v>371</v>
       </c>
       <c r="M24" s="7">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="N24" s="7">
-        <v>147643</v>
+        <v>57662</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5721,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D25" s="7">
-        <v>41508</v>
+        <v>86546</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>115</v>
+      </c>
+      <c r="I25" s="7">
+        <v>86622</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H25" s="7">
-        <v>45</v>
-      </c>
-      <c r="I25" s="7">
-        <v>28354</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>234</v>
+      </c>
+      <c r="N25" s="7">
+        <v>173168</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="M25" s="7">
-        <v>108</v>
-      </c>
-      <c r="N25" s="7">
-        <v>69862</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,49 +5772,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7">
-        <v>19437</v>
+        <v>56248</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>70</v>
+      </c>
+      <c r="I26" s="7">
+        <v>55850</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H26" s="7">
-        <v>32</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20353</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>146</v>
+      </c>
+      <c r="N26" s="7">
+        <v>112098</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="M26" s="7">
-        <v>60</v>
-      </c>
-      <c r="N26" s="7">
-        <v>39790</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5823,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
-        <v>10400</v>
+        <v>18396</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>393</v>
@@ -5838,25 +5838,25 @@
         <v>394</v>
       </c>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
-        <v>12916</v>
+        <v>16795</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>395</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N27" s="7">
-        <v>23316</v>
+        <v>35191</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>397</v>
@@ -5874,10 +5874,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D28" s="7">
-        <v>149283</v>
+        <v>191873</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -5889,10 +5889,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="I28" s="7">
-        <v>131328</v>
+        <v>186246</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -5904,10 +5904,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="N28" s="7">
-        <v>280611</v>
+        <v>378119</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -5927,10 +5927,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="D29" s="7">
-        <v>342231</v>
+        <v>92582</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>400</v>
@@ -5942,34 +5942,34 @@
         <v>402</v>
       </c>
       <c r="H29" s="7">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="I29" s="7">
-        <v>303489</v>
+        <v>104116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
-        <v>930</v>
+        <v>282</v>
       </c>
       <c r="N29" s="7">
-        <v>645720</v>
+        <v>196698</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,28 +5978,28 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="D30" s="7">
-        <v>187530</v>
+        <v>342231</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="I30" s="7">
-        <v>176379</v>
+        <v>303489</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>412</v>
@@ -6008,10 +6008,10 @@
         <v>413</v>
       </c>
       <c r="M30" s="7">
-        <v>517</v>
+        <v>930</v>
       </c>
       <c r="N30" s="7">
-        <v>363909</v>
+        <v>645720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>414</v>
@@ -6029,10 +6029,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="D31" s="7">
-        <v>92582</v>
+        <v>187530</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>417</v>
@@ -6044,10 +6044,10 @@
         <v>419</v>
       </c>
       <c r="H31" s="7">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="I31" s="7">
-        <v>104116</v>
+        <v>176379</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>420</v>
@@ -6059,10 +6059,10 @@
         <v>422</v>
       </c>
       <c r="M31" s="7">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="N31" s="7">
-        <v>196698</v>
+        <v>363909</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>423</v>
@@ -6092,7 +6092,7 @@
         <v>427</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -6194,7 +6194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA164A3A-C778-477F-91FA-59C5DCC4D1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA908B54-8F8D-47CF-8B3E-BE86648522E5}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6312,10 +6312,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>90032</v>
+        <v>2488</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>435</v>
@@ -6327,34 +6327,34 @@
         <v>437</v>
       </c>
       <c r="H4" s="7">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>76839</v>
+        <v>2177</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4665</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="M4" s="7">
-        <v>254</v>
-      </c>
-      <c r="N4" s="7">
-        <v>166871</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,49 +6363,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>73638</v>
+        <v>7393</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8039</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="7">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7">
-        <v>58873</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15433</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M5" s="7">
-        <v>204</v>
-      </c>
-      <c r="N5" s="7">
-        <v>132511</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,49 +6414,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>30171</v>
+        <v>12087</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8651</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H6" s="7">
-        <v>57</v>
-      </c>
-      <c r="I6" s="7">
-        <v>35850</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>20738</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="M6" s="7">
-        <v>102</v>
-      </c>
-      <c r="N6" s="7">
-        <v>66021</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,49 +6465,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
-        <v>10268</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1016</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1770</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H7" s="7">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13788</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="M7" s="7">
-        <v>37</v>
-      </c>
-      <c r="N7" s="7">
-        <v>24056</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,10 +6516,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>204109</v>
+        <v>22723</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -6531,10 +6531,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>185350</v>
+        <v>19883</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -6546,10 +6546,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>597</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>389459</v>
+        <v>42606</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -6569,49 +6569,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>40511</v>
+        <v>14697</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H9" s="7">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7">
+        <v>14598</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M9" s="7">
+        <v>43</v>
+      </c>
+      <c r="N9" s="7">
+        <v>29295</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H9" s="7">
-        <v>50</v>
-      </c>
-      <c r="I9" s="7">
-        <v>34787</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="M9" s="7">
-        <v>104</v>
-      </c>
-      <c r="N9" s="7">
-        <v>75298</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,49 +6620,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>41070</v>
+        <v>40511</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H10" s="7">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7">
+        <v>34787</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M10" s="7">
+        <v>104</v>
+      </c>
+      <c r="N10" s="7">
+        <v>75298</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>38298</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="M10" s="7">
-        <v>111</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79368</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,49 +6671,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>14697</v>
+        <v>41070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" s="7">
+        <v>56</v>
+      </c>
+      <c r="I11" s="7">
+        <v>38298</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M11" s="7">
+        <v>111</v>
+      </c>
+      <c r="N11" s="7">
+        <v>79368</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14598</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="M11" s="7">
-        <v>43</v>
-      </c>
-      <c r="N11" s="7">
-        <v>29295</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6728,13 @@
         <v>15641</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6743,13 +6743,13 @@
         <v>9738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -6758,13 +6758,13 @@
         <v>25379</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,49 +6826,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>68268</v>
+        <v>30171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H14" s="7">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7">
+        <v>35850</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" s="7">
+        <v>102</v>
+      </c>
+      <c r="N14" s="7">
+        <v>66021</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H14" s="7">
-        <v>95</v>
-      </c>
-      <c r="I14" s="7">
-        <v>70491</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="M14" s="7">
-        <v>190</v>
-      </c>
-      <c r="N14" s="7">
-        <v>138759</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,49 +6877,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7">
-        <v>61452</v>
+        <v>90032</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="7">
+        <v>121</v>
+      </c>
+      <c r="I15" s="7">
+        <v>76839</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M15" s="7">
+        <v>254</v>
+      </c>
+      <c r="N15" s="7">
+        <v>166871</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H15" s="7">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7">
-        <v>59206</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="M15" s="7">
-        <v>167</v>
-      </c>
-      <c r="N15" s="7">
-        <v>120657</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,49 +6928,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>22580</v>
+        <v>73638</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>23761</v>
+        <v>58873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>526</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="N16" s="7">
-        <v>46341</v>
+        <v>132511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,49 +6979,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>27424</v>
+        <v>10268</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>23283</v>
+        <v>13788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>50707</v>
+        <v>24056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,10 +7030,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="D18" s="7">
-        <v>179724</v>
+        <v>204109</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -7045,10 +7045,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="I18" s="7">
-        <v>176741</v>
+        <v>185350</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -7060,10 +7060,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>490</v>
+        <v>597</v>
       </c>
       <c r="N18" s="7">
-        <v>356464</v>
+        <v>389459</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -7077,55 +7077,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>7393</v>
+        <v>13545</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H19" s="7">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13912</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M19" s="7">
+        <v>45</v>
+      </c>
+      <c r="N19" s="7">
+        <v>27457</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8039</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="M19" s="7">
-        <v>18</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15433</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,49 +7134,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>12087</v>
+        <v>78308</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H20" s="7">
+        <v>108</v>
+      </c>
+      <c r="I20" s="7">
+        <v>62883</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="M20" s="7">
+        <v>224</v>
+      </c>
+      <c r="N20" s="7">
+        <v>141192</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8651</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="M20" s="7">
-        <v>23</v>
-      </c>
-      <c r="N20" s="7">
-        <v>20738</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,49 +7185,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7">
-        <v>2488</v>
+        <v>47455</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I21" s="7">
-        <v>2177</v>
+        <v>43331</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N21" s="7">
-        <v>4665</v>
+        <v>90786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>557</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,49 +7236,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>754</v>
+        <v>17272</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" s="7">
+        <v>34</v>
+      </c>
+      <c r="I22" s="7">
+        <v>22851</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M22" s="7">
+        <v>58</v>
+      </c>
+      <c r="N22" s="7">
+        <v>40123</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1016</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1770</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,10 +7287,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D23" s="7">
-        <v>22723</v>
+        <v>156581</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -7302,10 +7302,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I23" s="7">
-        <v>19883</v>
+        <v>142977</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -7317,10 +7317,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>467</v>
       </c>
       <c r="N23" s="7">
-        <v>42606</v>
+        <v>299558</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -7334,55 +7334,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>78308</v>
+        <v>22580</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H24" s="7">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23761</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="H24" s="7">
-        <v>108</v>
-      </c>
-      <c r="I24" s="7">
-        <v>62883</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>65</v>
+      </c>
+      <c r="N24" s="7">
+        <v>46341</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="M24" s="7">
-        <v>224</v>
-      </c>
-      <c r="N24" s="7">
-        <v>141192</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,49 +7391,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7">
-        <v>47455</v>
+        <v>68268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I25" s="7">
-        <v>43331</v>
+        <v>70491</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>190</v>
+      </c>
+      <c r="N25" s="7">
+        <v>138759</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="M25" s="7">
-        <v>140</v>
-      </c>
-      <c r="N25" s="7">
-        <v>90786</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>573</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7442,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7">
-        <v>13545</v>
+        <v>61452</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>579</v>
@@ -7457,10 +7457,10 @@
         <v>580</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I26" s="7">
-        <v>13912</v>
+        <v>59206</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>581</v>
@@ -7472,10 +7472,10 @@
         <v>583</v>
       </c>
       <c r="M26" s="7">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="N26" s="7">
-        <v>27457</v>
+        <v>120657</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>584</v>
@@ -7493,10 +7493,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D27" s="7">
-        <v>17272</v>
+        <v>27424</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>587</v>
@@ -7508,25 +7508,25 @@
         <v>589</v>
       </c>
       <c r="H27" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I27" s="7">
-        <v>22851</v>
+        <v>23283</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>590</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>178</v>
+        <v>591</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>591</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N27" s="7">
-        <v>40123</v>
+        <v>50707</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>592</v>
@@ -7544,10 +7544,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D28" s="7">
-        <v>156581</v>
+        <v>179724</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -7559,10 +7559,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I28" s="7">
-        <v>142977</v>
+        <v>176741</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -7574,10 +7574,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="N28" s="7">
-        <v>299558</v>
+        <v>356464</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -7597,10 +7597,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="D29" s="7">
-        <v>284512</v>
+        <v>83481</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>595</v>
@@ -7612,10 +7612,10 @@
         <v>597</v>
       </c>
       <c r="H29" s="7">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="I29" s="7">
-        <v>253039</v>
+        <v>90298</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>598</v>
@@ -7627,16 +7627,16 @@
         <v>600</v>
       </c>
       <c r="M29" s="7">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="N29" s="7">
-        <v>537552</v>
+        <v>173779</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>602</v>
@@ -7648,10 +7648,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="D30" s="7">
-        <v>235703</v>
+        <v>284512</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>603</v>
@@ -7663,10 +7663,10 @@
         <v>605</v>
       </c>
       <c r="H30" s="7">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="I30" s="7">
-        <v>208359</v>
+        <v>253039</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>606</v>
@@ -7678,19 +7678,19 @@
         <v>608</v>
       </c>
       <c r="M30" s="7">
-        <v>645</v>
+        <v>790</v>
       </c>
       <c r="N30" s="7">
-        <v>444061</v>
+        <v>537552</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>609</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,43 +7699,43 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D31" s="7">
-        <v>83481</v>
+        <v>235703</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>311</v>
+      </c>
+      <c r="I31" s="7">
+        <v>208359</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="H31" s="7">
-        <v>137</v>
-      </c>
-      <c r="I31" s="7">
-        <v>90298</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>645</v>
+      </c>
+      <c r="N31" s="7">
+        <v>444061</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="M31" s="7">
-        <v>260</v>
-      </c>
-      <c r="N31" s="7">
-        <v>173779</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>618</v>
@@ -7786,7 +7786,7 @@
         <v>142036</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>553</v>
+        <v>435</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>626</v>
@@ -7864,7 +7864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC293D8-913D-4998-9A0B-053A1E87977B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD1B3EA-F8BD-42BF-BBA6-9D32DCEE3E79}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7982,49 +7982,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>115677</v>
+        <v>5271</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5585</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H4" s="7">
-        <v>110</v>
-      </c>
-      <c r="I4" s="7">
-        <v>75681</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="M4" s="7">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>191358</v>
+        <v>10856</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,49 +8033,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>41630</v>
+        <v>5487</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8223</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="H5" s="7">
-        <v>40</v>
-      </c>
-      <c r="I5" s="7">
-        <v>31670</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>21</v>
+      </c>
+      <c r="N5" s="7">
+        <v>13709</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="M5" s="7">
-        <v>88</v>
-      </c>
-      <c r="N5" s="7">
-        <v>73300</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,49 +8084,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>76119</v>
+        <v>1941</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1501</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="H6" s="7">
-        <v>114</v>
-      </c>
-      <c r="I6" s="7">
-        <v>74374</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>6</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3442</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="M6" s="7">
-        <v>238</v>
-      </c>
-      <c r="N6" s="7">
-        <v>150493</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,49 +8135,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>15637</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>643</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>643</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="H7" s="7">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9449</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="M7" s="7">
-        <v>31</v>
-      </c>
-      <c r="N7" s="7">
-        <v>25086</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,10 +8186,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>249062</v>
+        <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -8201,10 +8201,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>191175</v>
+        <v>15952</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -8216,10 +8216,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>617</v>
+        <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>440236</v>
+        <v>28650</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -8242,46 +8242,46 @@
         <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>40857</v>
+        <v>33550</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="H9" s="7">
+        <v>72</v>
+      </c>
+      <c r="I9" s="7">
+        <v>38188</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>127</v>
+      </c>
+      <c r="N9" s="7">
+        <v>71739</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43479</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="M9" s="7">
-        <v>121</v>
-      </c>
-      <c r="N9" s="7">
-        <v>84336</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8290,49 +8290,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>20515</v>
+        <v>40857</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H10" s="7">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43479</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14723</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>121</v>
+      </c>
+      <c r="N10" s="7">
+        <v>84336</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="M10" s="7">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>35237</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>668</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>674</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,49 +8341,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>33550</v>
+        <v>20515</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="H11" s="7">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14723</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="H11" s="7">
-        <v>72</v>
-      </c>
-      <c r="I11" s="7">
-        <v>38188</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7">
+        <v>35237</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="M11" s="7">
-        <v>127</v>
-      </c>
-      <c r="N11" s="7">
-        <v>71739</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8398,13 +8398,13 @@
         <v>19673</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -8413,13 +8413,13 @@
         <v>5603</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -8428,13 +8428,13 @@
         <v>25276</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8496,49 +8496,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D14" s="7">
-        <v>71951</v>
+        <v>76119</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="H14" s="7">
+        <v>114</v>
+      </c>
+      <c r="I14" s="7">
+        <v>74374</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>238</v>
+      </c>
+      <c r="N14" s="7">
+        <v>150493</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="H14" s="7">
-        <v>105</v>
-      </c>
-      <c r="I14" s="7">
-        <v>76762</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="M14" s="7">
-        <v>195</v>
-      </c>
-      <c r="N14" s="7">
-        <v>148713</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8547,49 +8547,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="D15" s="7">
-        <v>23361</v>
+        <v>115677</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="7">
+        <v>110</v>
+      </c>
+      <c r="I15" s="7">
+        <v>75681</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M15" s="7">
+        <v>260</v>
+      </c>
+      <c r="N15" s="7">
+        <v>191358</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="H15" s="7">
-        <v>35</v>
-      </c>
-      <c r="I15" s="7">
-        <v>26573</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="M15" s="7">
-        <v>67</v>
-      </c>
-      <c r="N15" s="7">
-        <v>49934</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8598,49 +8598,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>67068</v>
+        <v>41630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>610</v>
+        <v>703</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>505</v>
+        <v>704</v>
       </c>
       <c r="H16" s="7">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>56085</v>
+        <v>31670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="M16" s="7">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7">
-        <v>123153</v>
+        <v>73300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>714</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,49 +8649,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15637</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="H17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="7">
-        <v>11512</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>9449</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="M17" s="7">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7">
+        <v>25086</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7351</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="M17" s="7">
-        <v>24</v>
-      </c>
-      <c r="N17" s="7">
-        <v>18863</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>657</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8700,10 +8700,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D18" s="7">
-        <v>173891</v>
+        <v>249062</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -8715,10 +8715,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>166772</v>
+        <v>191175</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -8730,10 +8730,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>340663</v>
+        <v>440236</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -8747,55 +8747,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>5487</v>
+        <v>41810</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="H19" s="7">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7">
+        <v>38798</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="M19" s="7">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="N19" s="7">
+        <v>80608</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8223</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="M19" s="7">
-        <v>21</v>
-      </c>
-      <c r="N19" s="7">
-        <v>13709</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8804,49 +8804,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>1941</v>
+        <v>70586</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="H20" s="7">
+        <v>90</v>
+      </c>
+      <c r="I20" s="7">
+        <v>67145</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="M20" s="7">
+        <v>175</v>
+      </c>
+      <c r="N20" s="7">
+        <v>137731</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1501</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3442</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,49 +8855,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7">
-        <v>5271</v>
+        <v>36044</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>734</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>735</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="H21" s="7">
+        <v>39</v>
+      </c>
+      <c r="I21" s="7">
+        <v>28755</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="H21" s="7">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5585</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>85</v>
+      </c>
+      <c r="N21" s="7">
+        <v>64800</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="M21" s="7">
-        <v>18</v>
-      </c>
-      <c r="N21" s="7">
-        <v>10856</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8906,49 +8906,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>20576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>742</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>743</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="H22" s="7">
+        <v>28</v>
+      </c>
+      <c r="I22" s="7">
+        <v>27801</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>643</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>747</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>643</v>
+        <v>48377</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>748</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>749</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>749</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8957,10 +8957,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D23" s="7">
-        <v>12698</v>
+        <v>169016</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -8972,10 +8972,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I23" s="7">
-        <v>15952</v>
+        <v>162500</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -8987,10 +8987,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="N23" s="7">
-        <v>28650</v>
+        <v>331516</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -9004,34 +9004,34 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D24" s="7">
-        <v>70586</v>
+        <v>67068</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>750</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>618</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H24" s="7">
+        <v>82</v>
+      </c>
+      <c r="I24" s="7">
+        <v>56085</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="H24" s="7">
-        <v>90</v>
-      </c>
-      <c r="I24" s="7">
-        <v>67145</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>752</v>
@@ -9040,10 +9040,10 @@
         <v>753</v>
       </c>
       <c r="M24" s="7">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N24" s="7">
-        <v>137731</v>
+        <v>123153</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>754</v>
@@ -9061,10 +9061,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7">
-        <v>36044</v>
+        <v>71951</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>757</v>
@@ -9076,10 +9076,10 @@
         <v>759</v>
       </c>
       <c r="H25" s="7">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I25" s="7">
-        <v>28755</v>
+        <v>76762</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>760</v>
@@ -9091,19 +9091,19 @@
         <v>762</v>
       </c>
       <c r="M25" s="7">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="N25" s="7">
-        <v>64800</v>
+        <v>148713</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>763</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>499</v>
+        <v>764</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9112,49 +9112,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
-        <v>41810</v>
+        <v>23361</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H26" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I26" s="7">
-        <v>38798</v>
+        <v>26573</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M26" s="7">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="N26" s="7">
-        <v>80608</v>
+        <v>49934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9163,25 +9163,25 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7">
-        <v>20576</v>
+        <v>11512</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>776</v>
       </c>
       <c r="H27" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>27801</v>
+        <v>7351</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>777</v>
@@ -9193,10 +9193,10 @@
         <v>779</v>
       </c>
       <c r="M27" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N27" s="7">
-        <v>48377</v>
+        <v>18863</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>780</v>
@@ -9205,7 +9205,7 @@
         <v>781</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>290</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9214,10 +9214,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>169016</v>
+        <v>173891</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -9229,10 +9229,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I28" s="7">
-        <v>162500</v>
+        <v>166772</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -9244,10 +9244,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="N28" s="7">
-        <v>331516</v>
+        <v>340663</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -9267,49 +9267,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="D29" s="7">
-        <v>304558</v>
+        <v>223818</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>782</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>783</v>
       </c>
       <c r="H29" s="7">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="I29" s="7">
-        <v>271290</v>
+        <v>213031</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>695</v>
+      </c>
+      <c r="N29" s="7">
+        <v>436849</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="M29" s="7">
-        <v>772</v>
-      </c>
-      <c r="N29" s="7">
-        <v>575847</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9318,49 +9318,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="D30" s="7">
-        <v>123490</v>
+        <v>304558</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>384</v>
+      </c>
+      <c r="I30" s="7">
+        <v>271290</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="H30" s="7">
-        <v>136</v>
-      </c>
-      <c r="I30" s="7">
-        <v>103222</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>772</v>
+      </c>
+      <c r="N30" s="7">
+        <v>575847</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="M30" s="7">
-        <v>292</v>
-      </c>
-      <c r="N30" s="7">
-        <v>226712</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="P30" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>794</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9369,28 +9369,28 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="D31" s="7">
-        <v>223818</v>
+        <v>123490</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>136</v>
+      </c>
+      <c r="I31" s="7">
+        <v>103222</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>797</v>
-      </c>
-      <c r="H31" s="7">
-        <v>338</v>
-      </c>
-      <c r="I31" s="7">
-        <v>213031</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>798</v>
@@ -9399,13 +9399,13 @@
         <v>799</v>
       </c>
       <c r="M31" s="7">
-        <v>695</v>
+        <v>292</v>
       </c>
       <c r="N31" s="7">
-        <v>436849</v>
+        <v>226712</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>800</v>
@@ -9456,13 +9456,13 @@
         <v>118246</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>807</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
